--- a/app/public/test1.xlsx
+++ b/app/public/test1.xlsx
@@ -562,6 +562,18 @@
       <c r="I5" t="str">
         <v>北京世标认证中心有限公司</v>
       </c>
+      <c r="J5" t="str">
+        <v>2013-11-14</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2007-11-19</v>
+      </c>
+      <c r="L5" t="str">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">

--- a/app/public/test1.xlsx
+++ b/app/public/test1.xlsx
@@ -533,6 +533,18 @@
       <c r="I4" t="str">
         <v>北京世标认证中心有限公司</v>
       </c>
+      <c r="J4" t="str">
+        <v>2010-11-18</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2007-11-19</v>
+      </c>
+      <c r="L4" t="str">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -603,6 +615,18 @@
       <c r="I6" t="str">
         <v>通标标准技术服务有限公司</v>
       </c>
+      <c r="J6" t="str">
+        <v>2014-04-26</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2005-04-27</v>
+      </c>
+      <c r="L6" t="str">
+        <v>3</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -661,6 +685,18 @@
       <c r="I8" t="str">
         <v>北京新世纪检验认证有限公司</v>
       </c>
+      <c r="J8" t="str">
+        <v>2011-02-23</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2005-01-20</v>
+      </c>
+      <c r="L8" t="str">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -690,6 +726,18 @@
       <c r="I9" t="str">
         <v>北京新世纪检验认证有限公司</v>
       </c>
+      <c r="J9" t="str">
+        <v>2011-02-23</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2005-01-20</v>
+      </c>
+      <c r="L9" t="str">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
